--- a/resources/galit.xlsx
+++ b/resources/galit.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rotemwald/PycharmProjects/FinalProject/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AC34C-1562-8347-9E39-118FA213C292}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גלית" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="639">
   <si>
     <t>TimeStamp</t>
   </si>
@@ -3310,19 +3316,22 @@
     <t>מעוין כשזה ריבוע??</t>
   </si>
   <si>
-    <t xml:space="preserve">DS </t>
-  </si>
-  <si>
     <t>Tag</t>
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -3710,33 +3719,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D1" sqref="A1:AMK434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="136.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="6"/>
-    <col min="5" max="5" width="7.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="136.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="6"/>
+    <col min="5" max="5" width="7.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="20" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="33" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="1025" width="11.5703125" style="4"/>
-    <col min="1026" max="16384" width="9.140625" style="4"/>
+    <col min="21" max="33" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="1025" width="11.5" style="4"/>
+    <col min="1026" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3750,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>627</v>
@@ -3759,10 +3768,10 @@
         <v>628</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3776,7 +3785,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+    <row r="3" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+    <row r="4" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3836,7 +3845,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+    <row r="7" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +3859,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+    <row r="8" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3864,7 +3873,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" customFormat="1" ht="12.75" hidden="1">
+    <row r="9" spans="1:7" customFormat="1" ht="13" hidden="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>558</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E20" s="9">
         <v>11</v>
@@ -4062,7 +4071,7 @@
         <v>607</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E21" s="6">
         <v>11</v>
@@ -4107,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E24" s="6">
         <v>11</v>
@@ -4136,7 +4145,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E25" s="9">
         <v>11</v>
@@ -4167,7 +4176,7 @@
         <v>608</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E27" s="6">
         <v>11</v>
@@ -4212,7 +4221,7 @@
         <v>49</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E30" s="6">
         <v>11</v>
@@ -4247,7 +4256,7 @@
         <v>51</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E31" s="9">
         <v>11</v>
@@ -4281,7 +4290,7 @@
         <v>559</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E33" s="9">
         <v>11</v>
@@ -4312,7 +4321,7 @@
         <v>56</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E35" s="6">
         <v>11</v>
@@ -4346,7 +4355,7 @@
         <v>59</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E37" s="9">
         <v>11</v>
@@ -4458,7 +4467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" customFormat="1" ht="12.75" hidden="1">
+    <row r="46" spans="1:6" customFormat="1" ht="13" hidden="1">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>610</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E50" s="6">
         <v>11</v>
@@ -4634,7 +4643,7 @@
         <v>81</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E55" s="9">
         <v>11</v>
@@ -4736,7 +4745,7 @@
         <v>88</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E61" s="9">
         <v>11</v>
@@ -4891,7 +4900,7 @@
         <v>611</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E71" s="6">
         <v>11</v>
@@ -4961,7 +4970,7 @@
         <v>612</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E76" s="6">
         <v>11</v>
@@ -4995,7 +5004,7 @@
         <v>109</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E78" s="9">
         <v>11</v>
@@ -5026,7 +5035,7 @@
         <v>112</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E80" s="6">
         <v>11</v>
@@ -5082,7 +5091,7 @@
         <v>561</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E84" s="9">
         <v>11</v>
@@ -5113,7 +5122,7 @@
         <v>119</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E86" s="6">
         <v>11</v>
@@ -5144,7 +5153,7 @@
         <v>122</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E88" s="6">
         <v>11</v>
@@ -5178,7 +5187,7 @@
         <v>125</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E90" s="9">
         <v>11</v>
@@ -5247,7 +5256,7 @@
         <v>562</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E93" s="9">
         <v>11</v>
@@ -5281,7 +5290,7 @@
         <v>563</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E95" s="9">
         <v>11</v>
@@ -5301,7 +5310,7 @@
         <v>132</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E96" s="6">
         <v>11</v>
@@ -5332,7 +5341,7 @@
         <v>135</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E98" s="6">
         <v>11</v>
@@ -5366,7 +5375,7 @@
         <v>564</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E100" s="9">
         <v>11</v>
@@ -5400,7 +5409,7 @@
         <v>140</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E102" s="9">
         <v>11</v>
@@ -5434,7 +5443,7 @@
         <v>565</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E104" s="9">
         <v>11</v>
@@ -5468,7 +5477,7 @@
         <v>566</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E106" s="9">
         <v>11</v>
@@ -5579,7 +5588,7 @@
         <v>151</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E112" s="6">
         <v>11</v>
@@ -5638,7 +5647,7 @@
         <v>614</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E116" s="6">
         <v>11</v>
@@ -5734,7 +5743,7 @@
         <v>569</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E122" s="9">
         <v>11</v>
@@ -5765,7 +5774,7 @@
         <v>616</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E124" s="6">
         <v>11</v>
@@ -5799,7 +5808,7 @@
         <v>161</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E126" s="9">
         <v>11</v>
@@ -5844,7 +5853,7 @@
         <v>171</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E129" s="9">
         <v>11</v>
@@ -5864,7 +5873,7 @@
         <v>173</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>632</v>
@@ -5898,7 +5907,7 @@
         <v>176</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E132" s="9">
         <v>11</v>
@@ -5952,7 +5961,7 @@
         <v>570</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E135" s="9">
         <v>11</v>
@@ -6133,7 +6142,7 @@
         <v>617</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E147" s="6">
         <v>11</v>
@@ -6290,7 +6299,7 @@
         <v>207</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E155" s="9">
         <v>11</v>
@@ -6324,7 +6333,7 @@
         <v>210</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E157" s="9">
         <v>11</v>
@@ -6369,7 +6378,7 @@
         <v>214</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E160" s="9">
         <v>11</v>
@@ -6403,7 +6412,7 @@
         <v>217</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E162" s="9">
         <v>11</v>
@@ -6511,7 +6520,7 @@
         <v>225</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E168" s="9">
         <v>11</v>
@@ -6556,7 +6565,7 @@
         <v>572</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E171" s="9">
         <v>11</v>
@@ -6590,7 +6599,7 @@
         <v>573</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E173" s="9">
         <v>11</v>
@@ -6860,7 +6869,7 @@
         <v>575</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E189" s="9">
         <v>11</v>
@@ -6991,7 +7000,7 @@
         <v>576</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E197" s="9">
         <v>11</v>
@@ -7091,7 +7100,7 @@
         <v>268</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E202" s="9">
         <v>11</v>
@@ -7111,7 +7120,7 @@
         <v>270</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E203" s="9">
         <v>11</v>
@@ -7267,7 +7276,7 @@
         <v>577</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E212" s="9">
         <v>11</v>
@@ -7419,7 +7428,7 @@
         <v>294</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E222" s="9">
         <v>11</v>
@@ -7500,7 +7509,7 @@
         <v>578</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E227" s="9">
         <v>11</v>
@@ -7696,7 +7705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:18" customFormat="1" ht="12.75" hidden="1">
+    <row r="237" spans="1:18" customFormat="1" ht="13" hidden="1">
       <c r="A237" t="s">
         <v>313</v>
       </c>
@@ -7710,7 +7719,7 @@
       <c r="E237" s="7"/>
       <c r="F237" s="7"/>
     </row>
-    <row r="238" spans="1:18" customFormat="1" ht="12.75" hidden="1">
+    <row r="238" spans="1:18" customFormat="1" ht="13" hidden="1">
       <c r="A238" t="s">
         <v>314</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>316</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E239" s="6">
         <v>11</v>
@@ -8028,7 +8037,7 @@
         <v>338</v>
       </c>
       <c r="D258" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E258" s="6">
         <v>11</v>
@@ -8059,7 +8068,7 @@
         <v>341</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E260" s="6">
         <v>11</v>
@@ -8093,7 +8102,7 @@
         <v>582</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E262" s="9">
         <v>11</v>
@@ -8127,7 +8136,7 @@
         <v>583</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E264" s="9">
         <v>11</v>
@@ -8175,7 +8184,7 @@
         <v>584</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E267" s="9">
         <v>11</v>
@@ -8209,7 +8218,7 @@
         <v>585</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E269" s="9">
         <v>11</v>
@@ -8262,7 +8271,7 @@
         <v>354</v>
       </c>
       <c r="D273" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E273" s="6">
         <v>11</v>
@@ -8307,7 +8316,7 @@
         <v>586</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E276" s="9">
         <v>11</v>
@@ -8341,7 +8350,7 @@
         <v>587</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E278" s="9">
         <v>11</v>
@@ -8383,7 +8392,7 @@
         <v>363</v>
       </c>
       <c r="D281" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E281" s="6">
         <v>11</v>
@@ -8482,7 +8491,7 @@
         <v>368</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E285" s="6">
         <v>11</v>
@@ -8527,7 +8536,7 @@
         <v>624</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E288" s="6">
         <v>11</v>
@@ -8558,7 +8567,7 @@
         <v>625</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E290" s="6">
         <v>11</v>
@@ -8592,7 +8601,7 @@
         <v>588</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E292" s="9">
         <v>11</v>
@@ -8648,7 +8657,7 @@
         <v>589</v>
       </c>
       <c r="D296" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E296" s="9">
         <v>11</v>
@@ -8682,7 +8691,7 @@
         <v>383</v>
       </c>
       <c r="D298" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E298" s="9">
         <v>11</v>
@@ -8716,7 +8725,7 @@
         <v>590</v>
       </c>
       <c r="D300" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E300" s="9">
         <v>11</v>
@@ -8849,7 +8858,7 @@
         <v>634</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E308" s="9">
         <v>11</v>
@@ -8883,7 +8892,7 @@
         <v>591</v>
       </c>
       <c r="D310" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E310" s="9">
         <v>11</v>
@@ -8942,7 +8951,7 @@
         <v>626</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E314" s="6">
         <v>11</v>
@@ -8976,7 +8985,7 @@
         <v>161</v>
       </c>
       <c r="D316" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E316" s="9">
         <v>11</v>
@@ -9010,7 +9019,7 @@
         <v>407</v>
       </c>
       <c r="D318" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E318" s="9">
         <v>11</v>
@@ -9144,7 +9153,7 @@
         <v>415</v>
       </c>
       <c r="D325" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E325" s="9">
         <v>11</v>
@@ -9178,7 +9187,7 @@
         <v>592</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E327" s="9">
         <v>11</v>
@@ -9209,7 +9218,7 @@
         <v>161</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E329" s="6">
         <v>11</v>
@@ -9243,7 +9252,7 @@
         <v>593</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E331" s="9">
         <v>11</v>
@@ -9288,7 +9297,7 @@
         <v>425</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E334" s="6">
         <v>11</v>
@@ -9308,7 +9317,7 @@
         <v>594</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E335" s="9">
         <v>11</v>
@@ -9512,7 +9521,7 @@
         <v>596</v>
       </c>
       <c r="D347" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E347" s="9">
         <v>11</v>
@@ -9546,7 +9555,7 @@
         <v>597</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E349" s="9">
         <v>11</v>
@@ -9619,7 +9628,7 @@
         <v>598</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E354" s="9">
         <v>11</v>
@@ -9713,7 +9722,7 @@
         <v>599</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E360" s="9">
         <v>11</v>
@@ -9747,7 +9756,7 @@
         <v>459</v>
       </c>
       <c r="D362" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E362" s="9">
         <v>11</v>
@@ -9778,7 +9787,7 @@
         <v>462</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E364" s="6">
         <v>11</v>
@@ -9812,7 +9821,7 @@
         <v>465</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E366" s="9">
         <v>11</v>
@@ -9886,7 +9895,7 @@
         <v>472</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E371" s="6">
         <v>11</v>
@@ -10123,7 +10132,7 @@
         <v>485</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E383" s="6">
         <v>11</v>
@@ -10171,7 +10180,7 @@
         <v>489</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E386" s="8">
         <v>11</v>
@@ -10230,7 +10239,7 @@
         <v>494</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E390" s="6">
         <v>11</v>
@@ -10275,7 +10284,7 @@
         <v>498</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E393" s="6">
         <v>11</v>
@@ -10295,7 +10304,7 @@
         <v>500</v>
       </c>
       <c r="D394" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E394" s="9">
         <v>11</v>
@@ -10457,7 +10466,7 @@
         <v>513</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E404" s="9">
         <v>11</v>
@@ -10488,7 +10497,7 @@
         <v>516</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E406" s="6">
         <v>11</v>
@@ -10533,7 +10542,7 @@
         <v>520</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E409" s="9">
         <v>11</v>
@@ -10567,7 +10576,7 @@
         <v>523</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E411" s="9">
         <v>11</v>
@@ -10587,7 +10596,7 @@
         <v>525</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E412" s="6">
         <v>11</v>
@@ -10665,7 +10674,7 @@
         <v>533</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E418" s="9">
         <v>11</v>
@@ -10710,7 +10719,7 @@
         <v>538</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E421" s="6">
         <v>11</v>
@@ -10934,7 +10943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:27" customFormat="1" ht="12.75" hidden="1">
+    <row r="432" spans="1:27" customFormat="1" ht="13" hidden="1">
       <c r="A432" t="s">
         <v>553</v>
       </c>
@@ -10948,7 +10957,7 @@
       <c r="E432" s="7"/>
       <c r="F432" s="7"/>
     </row>
-    <row r="433" spans="1:6" customFormat="1" ht="12.75" hidden="1">
+    <row r="433" spans="1:6" customFormat="1" ht="13" hidden="1">
       <c r="A433" t="s">
         <v>555</v>
       </c>
@@ -10962,7 +10971,7 @@
       <c r="E433" s="7"/>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6" customFormat="1" ht="12.75" hidden="1">
+    <row r="434" spans="1:6" customFormat="1" ht="13" hidden="1">
       <c r="A434" t="s">
         <v>556</v>
       </c>
@@ -10977,7 +10986,7 @@
       <c r="F434" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA434">
+  <autoFilter ref="A1:AA434" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val="*a*"/>
